--- a/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/DefaultCustomConvertersTest.xlsx
+++ b/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/DefaultCustomConvertersTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="24735" windowHeight="11955" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="24735" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>classA</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>Method boolean isExists(Object source, boolean dest)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotExists(Object source, boolean dest)</t>
+  </si>
+  <si>
+    <t>return !isExists(source, dest);</t>
+  </si>
+  <si>
+    <t>isNotExists</t>
   </si>
 </sst>
 </file>
@@ -839,10 +848,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:F8"/>
+  <dimension ref="D5:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -892,6 +901,17 @@
         <v>39</v>
       </c>
     </row>
+    <row r="9" spans="4:6">
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D5:F5"/>
@@ -902,10 +922,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:C6"/>
+  <dimension ref="C5:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -923,6 +943,16 @@
         <v>40</v>
       </c>
     </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/DefaultCustomConvertersTest.xlsx
+++ b/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/DefaultCustomConvertersTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="24735" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="24735" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C8:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D5:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -925,7 +925,7 @@
   <dimension ref="C5:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
